--- a/Software/CShape/ASP.NET/DB.xlsx
+++ b/Software/CShape/ASP.NET/DB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KTra02_aspx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PageDocument\PageDocument\Software\CShape\ASP.NET\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>STT</t>
   </si>
@@ -45,6 +45,18 @@
   </si>
   <si>
     <t>Hình ảnh</t>
+  </si>
+  <si>
+    <t>TenSP</t>
+  </si>
+  <si>
+    <t>GiaSP</t>
+  </si>
+  <si>
+    <t>MoTa</t>
+  </si>
+  <si>
+    <t>HinhAnh</t>
   </si>
 </sst>
 </file>
@@ -107,10 +119,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="S10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2:V30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -438,9 +452,10 @@
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="9" max="9" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -456,8 +471,23 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -467,7 +497,7 @@
       </c>
       <c r="C2" s="1">
         <f ca="1">RANDBETWEEN(300000,5000000)</f>
-        <v>4636276</v>
+        <v>4857061</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>"Đây là sản phẩm thứ "&amp;A2</f>
@@ -477,8 +507,19 @@
         <f>"hinh ("&amp;A2&amp;").jpg"</f>
         <v>hinh (1).jpg</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="str">
+        <f ca="1">"INSERT INTO [dbo].[tbSanPham] ([TenSP] ,[GiaSP] ,[MoTa] ,[HinhAnh]) VALUES (N'"&amp;B2&amp; "','" &amp;C2&amp;"' ,N'" &amp;D2&amp;"','" &amp;E2&amp;"')"</f>
+        <v>INSERT INTO [dbo].[tbSanPham] ([TenSP] ,[GiaSP] ,[MoTa] ,[HinhAnh]) VALUES (N'Sản phẩm 1','4857061' ,N'Đây là sản phẩm thứ 1','hinh (1).jpg')</v>
+      </c>
+      <c r="V2" t="str">
+        <f ca="1">"Update  [dbo].[tbSanPham] SET [TenSP] =N'"&amp;B2&amp; "' ,[GiaSP]=" &amp;C2&amp;" ,[MoTa]=N'" &amp;D2&amp;"' ,[HinhAnh]='" &amp;E2&amp;"' WHERE [TenSP] =N'"&amp;B2&amp; "'"</f>
+        <v>Update  [dbo].[tbSanPham] SET [TenSP] =N'Sản phẩm 1' ,[GiaSP]=4857061 ,[MoTa]=N'Đây là sản phẩm thứ 1' ,[HinhAnh]='hinh (1).jpg' WHERE [TenSP] =N'Sản phẩm 1'</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -488,7 +529,7 @@
       </c>
       <c r="C3" s="1">
         <f t="shared" ref="C3:C30" ca="1" si="1">RANDBETWEEN(300000,5000000)</f>
-        <v>3185708</v>
+        <v>3180019</v>
       </c>
       <c r="D3" s="1" t="str">
         <f t="shared" ref="D3:D30" si="2">"Đây là sản phẩm thứ "&amp;A3</f>
@@ -498,8 +539,19 @@
         <f t="shared" ref="E3:E30" si="3">"hinh ("&amp;A3&amp;").jpg"</f>
         <v>hinh (2).jpg</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" s="4" t="str">
+        <f t="shared" ref="I3:I30" ca="1" si="4">"INSERT INTO [dbo].[tbSanPham] ([TenSP] ,[GiaSP] ,[MoTa] ,[HinhAnh]) VALUES (N'"&amp;B3&amp; "','" &amp;C3&amp;"' ,N'" &amp;D3&amp;"','" &amp;E3&amp;"')"</f>
+        <v>INSERT INTO [dbo].[tbSanPham] ([TenSP] ,[GiaSP] ,[MoTa] ,[HinhAnh]) VALUES (N'Sản phẩm 2','3180019' ,N'Đây là sản phẩm thứ 2','hinh (2).jpg')</v>
+      </c>
+      <c r="V3" t="str">
+        <f t="shared" ref="V3:V30" ca="1" si="5">"Update  [dbo].[tbSanPham] SET [TenSP] =N'"&amp;B3&amp; "' ,[GiaSP]=" &amp;C3&amp;" ,[MoTa]=N'" &amp;D3&amp;"' ,[HinhAnh]='" &amp;E3&amp;"' WHERE [TenSP] =N'"&amp;B3&amp; "'"</f>
+        <v>Update  [dbo].[tbSanPham] SET [TenSP] =N'Sản phẩm 2' ,[GiaSP]=3180019 ,[MoTa]=N'Đây là sản phẩm thứ 2' ,[HinhAnh]='hinh (2).jpg' WHERE [TenSP] =N'Sản phẩm 2'</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -509,7 +561,7 @@
       </c>
       <c r="C4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4669206</v>
+        <v>3337325</v>
       </c>
       <c r="D4" s="1" t="str">
         <f t="shared" si="2"/>
@@ -519,8 +571,19 @@
         <f t="shared" si="3"/>
         <v>hinh (3).jpg</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>INSERT INTO [dbo].[tbSanPham] ([TenSP] ,[GiaSP] ,[MoTa] ,[HinhAnh]) VALUES (N'Sản phẩm 3','3337325' ,N'Đây là sản phẩm thứ 3','hinh (3).jpg')</v>
+      </c>
+      <c r="V4" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Update  [dbo].[tbSanPham] SET [TenSP] =N'Sản phẩm 3' ,[GiaSP]=3337325 ,[MoTa]=N'Đây là sản phẩm thứ 3' ,[HinhAnh]='hinh (3).jpg' WHERE [TenSP] =N'Sản phẩm 3'</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -530,7 +593,7 @@
       </c>
       <c r="C5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>809257</v>
+        <v>1955443</v>
       </c>
       <c r="D5" s="1" t="str">
         <f t="shared" si="2"/>
@@ -540,8 +603,19 @@
         <f t="shared" si="3"/>
         <v>hinh (4).jpg</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>INSERT INTO [dbo].[tbSanPham] ([TenSP] ,[GiaSP] ,[MoTa] ,[HinhAnh]) VALUES (N'Sản phẩm 4','1955443' ,N'Đây là sản phẩm thứ 4','hinh (4).jpg')</v>
+      </c>
+      <c r="V5" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Update  [dbo].[tbSanPham] SET [TenSP] =N'Sản phẩm 4' ,[GiaSP]=1955443 ,[MoTa]=N'Đây là sản phẩm thứ 4' ,[HinhAnh]='hinh (4).jpg' WHERE [TenSP] =N'Sản phẩm 4'</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -551,7 +625,7 @@
       </c>
       <c r="C6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2356559</v>
+        <v>3101405</v>
       </c>
       <c r="D6" s="1" t="str">
         <f t="shared" si="2"/>
@@ -561,8 +635,19 @@
         <f t="shared" si="3"/>
         <v>hinh (5).jpg</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>INSERT INTO [dbo].[tbSanPham] ([TenSP] ,[GiaSP] ,[MoTa] ,[HinhAnh]) VALUES (N'Sản phẩm 5','3101405' ,N'Đây là sản phẩm thứ 5','hinh (5).jpg')</v>
+      </c>
+      <c r="V6" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Update  [dbo].[tbSanPham] SET [TenSP] =N'Sản phẩm 5' ,[GiaSP]=3101405 ,[MoTa]=N'Đây là sản phẩm thứ 5' ,[HinhAnh]='hinh (5).jpg' WHERE [TenSP] =N'Sản phẩm 5'</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -572,7 +657,7 @@
       </c>
       <c r="C7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2500941</v>
+        <v>2853076</v>
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" si="2"/>
@@ -582,8 +667,19 @@
         <f t="shared" si="3"/>
         <v>hinh (6).jpg</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>INSERT INTO [dbo].[tbSanPham] ([TenSP] ,[GiaSP] ,[MoTa] ,[HinhAnh]) VALUES (N'Sản phẩm 6','2853076' ,N'Đây là sản phẩm thứ 6','hinh (6).jpg')</v>
+      </c>
+      <c r="V7" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Update  [dbo].[tbSanPham] SET [TenSP] =N'Sản phẩm 6' ,[GiaSP]=2853076 ,[MoTa]=N'Đây là sản phẩm thứ 6' ,[HinhAnh]='hinh (6).jpg' WHERE [TenSP] =N'Sản phẩm 6'</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -593,7 +689,7 @@
       </c>
       <c r="C8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2034979</v>
+        <v>3031887</v>
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" si="2"/>
@@ -603,8 +699,19 @@
         <f t="shared" si="3"/>
         <v>hinh (7).jpg</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>INSERT INTO [dbo].[tbSanPham] ([TenSP] ,[GiaSP] ,[MoTa] ,[HinhAnh]) VALUES (N'Sản phẩm 7','3031887' ,N'Đây là sản phẩm thứ 7','hinh (7).jpg')</v>
+      </c>
+      <c r="V8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Update  [dbo].[tbSanPham] SET [TenSP] =N'Sản phẩm 7' ,[GiaSP]=3031887 ,[MoTa]=N'Đây là sản phẩm thứ 7' ,[HinhAnh]='hinh (7).jpg' WHERE [TenSP] =N'Sản phẩm 7'</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -614,7 +721,7 @@
       </c>
       <c r="C9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2773281</v>
+        <v>2896154</v>
       </c>
       <c r="D9" s="1" t="str">
         <f t="shared" si="2"/>
@@ -624,8 +731,19 @@
         <f t="shared" si="3"/>
         <v>hinh (8).jpg</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>INSERT INTO [dbo].[tbSanPham] ([TenSP] ,[GiaSP] ,[MoTa] ,[HinhAnh]) VALUES (N'Sản phẩm 8','2896154' ,N'Đây là sản phẩm thứ 8','hinh (8).jpg')</v>
+      </c>
+      <c r="V9" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Update  [dbo].[tbSanPham] SET [TenSP] =N'Sản phẩm 8' ,[GiaSP]=2896154 ,[MoTa]=N'Đây là sản phẩm thứ 8' ,[HinhAnh]='hinh (8).jpg' WHERE [TenSP] =N'Sản phẩm 8'</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -635,7 +753,7 @@
       </c>
       <c r="C10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>594250</v>
+        <v>3603271</v>
       </c>
       <c r="D10" s="1" t="str">
         <f t="shared" si="2"/>
@@ -645,8 +763,19 @@
         <f t="shared" si="3"/>
         <v>hinh (9).jpg</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <v>9</v>
+      </c>
+      <c r="I10" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>INSERT INTO [dbo].[tbSanPham] ([TenSP] ,[GiaSP] ,[MoTa] ,[HinhAnh]) VALUES (N'Sản phẩm 9','3603271' ,N'Đây là sản phẩm thứ 9','hinh (9).jpg')</v>
+      </c>
+      <c r="V10" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Update  [dbo].[tbSanPham] SET [TenSP] =N'Sản phẩm 9' ,[GiaSP]=3603271 ,[MoTa]=N'Đây là sản phẩm thứ 9' ,[HinhAnh]='hinh (9).jpg' WHERE [TenSP] =N'Sản phẩm 9'</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -656,7 +785,7 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2209035</v>
+        <v>525981</v>
       </c>
       <c r="D11" s="1" t="str">
         <f t="shared" si="2"/>
@@ -666,8 +795,19 @@
         <f t="shared" si="3"/>
         <v>hinh (10).jpg</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>INSERT INTO [dbo].[tbSanPham] ([TenSP] ,[GiaSP] ,[MoTa] ,[HinhAnh]) VALUES (N'Sản phẩm 10','525981' ,N'Đây là sản phẩm thứ 10','hinh (10).jpg')</v>
+      </c>
+      <c r="V11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Update  [dbo].[tbSanPham] SET [TenSP] =N'Sản phẩm 10' ,[GiaSP]=525981 ,[MoTa]=N'Đây là sản phẩm thứ 10' ,[HinhAnh]='hinh (10).jpg' WHERE [TenSP] =N'Sản phẩm 10'</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -677,7 +817,7 @@
       </c>
       <c r="C12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3731546</v>
+        <v>1504959</v>
       </c>
       <c r="D12" s="1" t="str">
         <f t="shared" si="2"/>
@@ -687,8 +827,19 @@
         <f t="shared" si="3"/>
         <v>hinh (11).jpg</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <v>11</v>
+      </c>
+      <c r="I12" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>INSERT INTO [dbo].[tbSanPham] ([TenSP] ,[GiaSP] ,[MoTa] ,[HinhAnh]) VALUES (N'Sản phẩm 11','1504959' ,N'Đây là sản phẩm thứ 11','hinh (11).jpg')</v>
+      </c>
+      <c r="V12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Update  [dbo].[tbSanPham] SET [TenSP] =N'Sản phẩm 11' ,[GiaSP]=1504959 ,[MoTa]=N'Đây là sản phẩm thứ 11' ,[HinhAnh]='hinh (11).jpg' WHERE [TenSP] =N'Sản phẩm 11'</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -698,7 +849,7 @@
       </c>
       <c r="C13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4365049</v>
+        <v>2860538</v>
       </c>
       <c r="D13" s="1" t="str">
         <f t="shared" si="2"/>
@@ -708,8 +859,19 @@
         <f t="shared" si="3"/>
         <v>hinh (12).jpg</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <v>12</v>
+      </c>
+      <c r="I13" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>INSERT INTO [dbo].[tbSanPham] ([TenSP] ,[GiaSP] ,[MoTa] ,[HinhAnh]) VALUES (N'Sản phẩm 12','2860538' ,N'Đây là sản phẩm thứ 12','hinh (12).jpg')</v>
+      </c>
+      <c r="V13" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Update  [dbo].[tbSanPham] SET [TenSP] =N'Sản phẩm 12' ,[GiaSP]=2860538 ,[MoTa]=N'Đây là sản phẩm thứ 12' ,[HinhAnh]='hinh (12).jpg' WHERE [TenSP] =N'Sản phẩm 12'</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -719,7 +881,7 @@
       </c>
       <c r="C14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2059326</v>
+        <v>3013228</v>
       </c>
       <c r="D14" s="1" t="str">
         <f t="shared" si="2"/>
@@ -729,8 +891,19 @@
         <f t="shared" si="3"/>
         <v>hinh (13).jpg</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H14">
+        <v>13</v>
+      </c>
+      <c r="I14" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>INSERT INTO [dbo].[tbSanPham] ([TenSP] ,[GiaSP] ,[MoTa] ,[HinhAnh]) VALUES (N'Sản phẩm 13','3013228' ,N'Đây là sản phẩm thứ 13','hinh (13).jpg')</v>
+      </c>
+      <c r="V14" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Update  [dbo].[tbSanPham] SET [TenSP] =N'Sản phẩm 13' ,[GiaSP]=3013228 ,[MoTa]=N'Đây là sản phẩm thứ 13' ,[HinhAnh]='hinh (13).jpg' WHERE [TenSP] =N'Sản phẩm 13'</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -740,7 +913,7 @@
       </c>
       <c r="C15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1666813</v>
+        <v>2630459</v>
       </c>
       <c r="D15" s="1" t="str">
         <f t="shared" si="2"/>
@@ -750,8 +923,19 @@
         <f t="shared" si="3"/>
         <v>hinh (14).jpg</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <v>14</v>
+      </c>
+      <c r="I15" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>INSERT INTO [dbo].[tbSanPham] ([TenSP] ,[GiaSP] ,[MoTa] ,[HinhAnh]) VALUES (N'Sản phẩm 14','2630459' ,N'Đây là sản phẩm thứ 14','hinh (14).jpg')</v>
+      </c>
+      <c r="V15" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Update  [dbo].[tbSanPham] SET [TenSP] =N'Sản phẩm 14' ,[GiaSP]=2630459 ,[MoTa]=N'Đây là sản phẩm thứ 14' ,[HinhAnh]='hinh (14).jpg' WHERE [TenSP] =N'Sản phẩm 14'</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -761,7 +945,7 @@
       </c>
       <c r="C16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3813724</v>
+        <v>1912799</v>
       </c>
       <c r="D16" s="1" t="str">
         <f t="shared" si="2"/>
@@ -771,8 +955,19 @@
         <f t="shared" si="3"/>
         <v>hinh (15).jpg</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <v>15</v>
+      </c>
+      <c r="I16" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>INSERT INTO [dbo].[tbSanPham] ([TenSP] ,[GiaSP] ,[MoTa] ,[HinhAnh]) VALUES (N'Sản phẩm 15','1912799' ,N'Đây là sản phẩm thứ 15','hinh (15).jpg')</v>
+      </c>
+      <c r="V16" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Update  [dbo].[tbSanPham] SET [TenSP] =N'Sản phẩm 15' ,[GiaSP]=1912799 ,[MoTa]=N'Đây là sản phẩm thứ 15' ,[HinhAnh]='hinh (15).jpg' WHERE [TenSP] =N'Sản phẩm 15'</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -782,7 +977,7 @@
       </c>
       <c r="C17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2571620</v>
+        <v>2425060</v>
       </c>
       <c r="D17" s="1" t="str">
         <f t="shared" si="2"/>
@@ -792,8 +987,19 @@
         <f t="shared" si="3"/>
         <v>hinh (16).jpg</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <v>16</v>
+      </c>
+      <c r="I17" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>INSERT INTO [dbo].[tbSanPham] ([TenSP] ,[GiaSP] ,[MoTa] ,[HinhAnh]) VALUES (N'Sản phẩm 16','2425060' ,N'Đây là sản phẩm thứ 16','hinh (16).jpg')</v>
+      </c>
+      <c r="V17" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Update  [dbo].[tbSanPham] SET [TenSP] =N'Sản phẩm 16' ,[GiaSP]=2425060 ,[MoTa]=N'Đây là sản phẩm thứ 16' ,[HinhAnh]='hinh (16).jpg' WHERE [TenSP] =N'Sản phẩm 16'</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -803,7 +1009,7 @@
       </c>
       <c r="C18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1991621</v>
+        <v>480964</v>
       </c>
       <c r="D18" s="1" t="str">
         <f t="shared" si="2"/>
@@ -813,8 +1019,19 @@
         <f t="shared" si="3"/>
         <v>hinh (17).jpg</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <v>17</v>
+      </c>
+      <c r="I18" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>INSERT INTO [dbo].[tbSanPham] ([TenSP] ,[GiaSP] ,[MoTa] ,[HinhAnh]) VALUES (N'Sản phẩm 17','480964' ,N'Đây là sản phẩm thứ 17','hinh (17).jpg')</v>
+      </c>
+      <c r="V18" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Update  [dbo].[tbSanPham] SET [TenSP] =N'Sản phẩm 17' ,[GiaSP]=480964 ,[MoTa]=N'Đây là sản phẩm thứ 17' ,[HinhAnh]='hinh (17).jpg' WHERE [TenSP] =N'Sản phẩm 17'</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -824,7 +1041,7 @@
       </c>
       <c r="C19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1955749</v>
+        <v>1044292</v>
       </c>
       <c r="D19" s="1" t="str">
         <f t="shared" si="2"/>
@@ -834,8 +1051,19 @@
         <f t="shared" si="3"/>
         <v>hinh (18).jpg</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <v>18</v>
+      </c>
+      <c r="I19" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>INSERT INTO [dbo].[tbSanPham] ([TenSP] ,[GiaSP] ,[MoTa] ,[HinhAnh]) VALUES (N'Sản phẩm 18','1044292' ,N'Đây là sản phẩm thứ 18','hinh (18).jpg')</v>
+      </c>
+      <c r="V19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Update  [dbo].[tbSanPham] SET [TenSP] =N'Sản phẩm 18' ,[GiaSP]=1044292 ,[MoTa]=N'Đây là sản phẩm thứ 18' ,[HinhAnh]='hinh (18).jpg' WHERE [TenSP] =N'Sản phẩm 18'</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -845,7 +1073,7 @@
       </c>
       <c r="C20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>451061</v>
+        <v>3952942</v>
       </c>
       <c r="D20" s="1" t="str">
         <f t="shared" si="2"/>
@@ -855,8 +1083,19 @@
         <f t="shared" si="3"/>
         <v>hinh (19).jpg</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <v>19</v>
+      </c>
+      <c r="I20" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>INSERT INTO [dbo].[tbSanPham] ([TenSP] ,[GiaSP] ,[MoTa] ,[HinhAnh]) VALUES (N'Sản phẩm 19','3952942' ,N'Đây là sản phẩm thứ 19','hinh (19).jpg')</v>
+      </c>
+      <c r="V20" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Update  [dbo].[tbSanPham] SET [TenSP] =N'Sản phẩm 19' ,[GiaSP]=3952942 ,[MoTa]=N'Đây là sản phẩm thứ 19' ,[HinhAnh]='hinh (19).jpg' WHERE [TenSP] =N'Sản phẩm 19'</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -866,7 +1105,7 @@
       </c>
       <c r="C21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1339807</v>
+        <v>1614902</v>
       </c>
       <c r="D21" s="1" t="str">
         <f t="shared" si="2"/>
@@ -876,8 +1115,19 @@
         <f t="shared" si="3"/>
         <v>hinh (20).jpg</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <v>20</v>
+      </c>
+      <c r="I21" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>INSERT INTO [dbo].[tbSanPham] ([TenSP] ,[GiaSP] ,[MoTa] ,[HinhAnh]) VALUES (N'Sản phẩm 20','1614902' ,N'Đây là sản phẩm thứ 20','hinh (20).jpg')</v>
+      </c>
+      <c r="V21" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Update  [dbo].[tbSanPham] SET [TenSP] =N'Sản phẩm 20' ,[GiaSP]=1614902 ,[MoTa]=N'Đây là sản phẩm thứ 20' ,[HinhAnh]='hinh (20).jpg' WHERE [TenSP] =N'Sản phẩm 20'</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -887,7 +1137,7 @@
       </c>
       <c r="C22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4193301</v>
+        <v>781372</v>
       </c>
       <c r="D22" s="1" t="str">
         <f t="shared" si="2"/>
@@ -897,8 +1147,19 @@
         <f t="shared" si="3"/>
         <v>hinh (21).jpg</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <v>21</v>
+      </c>
+      <c r="I22" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>INSERT INTO [dbo].[tbSanPham] ([TenSP] ,[GiaSP] ,[MoTa] ,[HinhAnh]) VALUES (N'Sản phẩm 21','781372' ,N'Đây là sản phẩm thứ 21','hinh (21).jpg')</v>
+      </c>
+      <c r="V22" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Update  [dbo].[tbSanPham] SET [TenSP] =N'Sản phẩm 21' ,[GiaSP]=781372 ,[MoTa]=N'Đây là sản phẩm thứ 21' ,[HinhAnh]='hinh (21).jpg' WHERE [TenSP] =N'Sản phẩm 21'</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -908,7 +1169,7 @@
       </c>
       <c r="C23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1732836</v>
+        <v>3243296</v>
       </c>
       <c r="D23" s="1" t="str">
         <f t="shared" si="2"/>
@@ -918,8 +1179,19 @@
         <f t="shared" si="3"/>
         <v>hinh (22).jpg</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H23">
+        <v>22</v>
+      </c>
+      <c r="I23" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>INSERT INTO [dbo].[tbSanPham] ([TenSP] ,[GiaSP] ,[MoTa] ,[HinhAnh]) VALUES (N'Sản phẩm 22','3243296' ,N'Đây là sản phẩm thứ 22','hinh (22).jpg')</v>
+      </c>
+      <c r="V23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Update  [dbo].[tbSanPham] SET [TenSP] =N'Sản phẩm 22' ,[GiaSP]=3243296 ,[MoTa]=N'Đây là sản phẩm thứ 22' ,[HinhAnh]='hinh (22).jpg' WHERE [TenSP] =N'Sản phẩm 22'</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -929,7 +1201,7 @@
       </c>
       <c r="C24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2679243</v>
+        <v>748128</v>
       </c>
       <c r="D24" s="1" t="str">
         <f t="shared" si="2"/>
@@ -939,8 +1211,19 @@
         <f t="shared" si="3"/>
         <v>hinh (23).jpg</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H24">
+        <v>23</v>
+      </c>
+      <c r="I24" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>INSERT INTO [dbo].[tbSanPham] ([TenSP] ,[GiaSP] ,[MoTa] ,[HinhAnh]) VALUES (N'Sản phẩm 23','748128' ,N'Đây là sản phẩm thứ 23','hinh (23).jpg')</v>
+      </c>
+      <c r="V24" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Update  [dbo].[tbSanPham] SET [TenSP] =N'Sản phẩm 23' ,[GiaSP]=748128 ,[MoTa]=N'Đây là sản phẩm thứ 23' ,[HinhAnh]='hinh (23).jpg' WHERE [TenSP] =N'Sản phẩm 23'</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -950,7 +1233,7 @@
       </c>
       <c r="C25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1848944</v>
+        <v>1724956</v>
       </c>
       <c r="D25" s="1" t="str">
         <f t="shared" si="2"/>
@@ -960,8 +1243,19 @@
         <f t="shared" si="3"/>
         <v>hinh (24).jpg</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>INSERT INTO [dbo].[tbSanPham] ([TenSP] ,[GiaSP] ,[MoTa] ,[HinhAnh]) VALUES (N'Sản phẩm 24','1724956' ,N'Đây là sản phẩm thứ 24','hinh (24).jpg')</v>
+      </c>
+      <c r="V25" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Update  [dbo].[tbSanPham] SET [TenSP] =N'Sản phẩm 24' ,[GiaSP]=1724956 ,[MoTa]=N'Đây là sản phẩm thứ 24' ,[HinhAnh]='hinh (24).jpg' WHERE [TenSP] =N'Sản phẩm 24'</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -971,7 +1265,7 @@
       </c>
       <c r="C26" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>440766</v>
+        <v>2852514</v>
       </c>
       <c r="D26" s="1" t="str">
         <f t="shared" si="2"/>
@@ -981,8 +1275,19 @@
         <f t="shared" si="3"/>
         <v>hinh (25).jpg</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>INSERT INTO [dbo].[tbSanPham] ([TenSP] ,[GiaSP] ,[MoTa] ,[HinhAnh]) VALUES (N'Sản phẩm 25','2852514' ,N'Đây là sản phẩm thứ 25','hinh (25).jpg')</v>
+      </c>
+      <c r="V26" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Update  [dbo].[tbSanPham] SET [TenSP] =N'Sản phẩm 25' ,[GiaSP]=2852514 ,[MoTa]=N'Đây là sản phẩm thứ 25' ,[HinhAnh]='hinh (25).jpg' WHERE [TenSP] =N'Sản phẩm 25'</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -992,7 +1297,7 @@
       </c>
       <c r="C27" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3819210</v>
+        <v>1965651</v>
       </c>
       <c r="D27" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1002,8 +1307,19 @@
         <f t="shared" si="3"/>
         <v>hinh (26).jpg</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>INSERT INTO [dbo].[tbSanPham] ([TenSP] ,[GiaSP] ,[MoTa] ,[HinhAnh]) VALUES (N'Sản phẩm 26','1965651' ,N'Đây là sản phẩm thứ 26','hinh (26).jpg')</v>
+      </c>
+      <c r="V27" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Update  [dbo].[tbSanPham] SET [TenSP] =N'Sản phẩm 26' ,[GiaSP]=1965651 ,[MoTa]=N'Đây là sản phẩm thứ 26' ,[HinhAnh]='hinh (26).jpg' WHERE [TenSP] =N'Sản phẩm 26'</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1013,7 +1329,7 @@
       </c>
       <c r="C28" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3906801</v>
+        <v>3741558</v>
       </c>
       <c r="D28" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1023,8 +1339,19 @@
         <f t="shared" si="3"/>
         <v>hinh (27).jpg</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <v>4</v>
+      </c>
+      <c r="I28" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>INSERT INTO [dbo].[tbSanPham] ([TenSP] ,[GiaSP] ,[MoTa] ,[HinhAnh]) VALUES (N'Sản phẩm 27','3741558' ,N'Đây là sản phẩm thứ 27','hinh (27).jpg')</v>
+      </c>
+      <c r="V28" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Update  [dbo].[tbSanPham] SET [TenSP] =N'Sản phẩm 27' ,[GiaSP]=3741558 ,[MoTa]=N'Đây là sản phẩm thứ 27' ,[HinhAnh]='hinh (27).jpg' WHERE [TenSP] =N'Sản phẩm 27'</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1034,7 +1361,7 @@
       </c>
       <c r="C29" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>864854</v>
+        <v>1588392</v>
       </c>
       <c r="D29" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1044,8 +1371,19 @@
         <f t="shared" si="3"/>
         <v>hinh (28).jpg</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H29">
+        <v>5</v>
+      </c>
+      <c r="I29" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>INSERT INTO [dbo].[tbSanPham] ([TenSP] ,[GiaSP] ,[MoTa] ,[HinhAnh]) VALUES (N'Sản phẩm 28','1588392' ,N'Đây là sản phẩm thứ 28','hinh (28).jpg')</v>
+      </c>
+      <c r="V29" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Update  [dbo].[tbSanPham] SET [TenSP] =N'Sản phẩm 28' ,[GiaSP]=1588392 ,[MoTa]=N'Đây là sản phẩm thứ 28' ,[HinhAnh]='hinh (28).jpg' WHERE [TenSP] =N'Sản phẩm 28'</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1055,7 +1393,7 @@
       </c>
       <c r="C30" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4467437</v>
+        <v>559540</v>
       </c>
       <c r="D30" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1064,6 +1402,17 @@
       <c r="E30" s="1" t="str">
         <f t="shared" si="3"/>
         <v>hinh (29).jpg</v>
+      </c>
+      <c r="H30">
+        <v>6</v>
+      </c>
+      <c r="I30" s="4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>INSERT INTO [dbo].[tbSanPham] ([TenSP] ,[GiaSP] ,[MoTa] ,[HinhAnh]) VALUES (N'Sản phẩm 29','559540' ,N'Đây là sản phẩm thứ 29','hinh (29).jpg')</v>
+      </c>
+      <c r="V30" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Update  [dbo].[tbSanPham] SET [TenSP] =N'Sản phẩm 29' ,[GiaSP]=559540 ,[MoTa]=N'Đây là sản phẩm thứ 29' ,[HinhAnh]='hinh (29).jpg' WHERE [TenSP] =N'Sản phẩm 29'</v>
       </c>
     </row>
   </sheetData>
